--- a/excel/绩效考核模板-测试.xlsx
+++ b/excel/绩效考核模板-测试.xlsx
@@ -75,13 +75,66 @@
     <t>项目进度达成率</t>
   </si>
   <si>
-    <t>描述
-1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
-计算标准
-1、实际软件测试项目关闭时间比预期提前完成：1.2
-2、实际软件测试项目关闭时间与预期相等：1
-3、实际软件测试项目关闭时间比预期时间晚5个自然日内：0.5
-4、实际软件测试项目关于时间与预期时间晚5个自然日外：0</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">描述
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">计算标准
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">t(天) = 软件测试项目关闭时间 - 软件测试项目关闭预期时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>t &lt;= -8 (基数: 1.8) +-8 &lt; t &lt;= -6 (基数: 1.5) +-6 &lt; t &lt;= -3 (基数: 1.2) +-3 &lt; t &lt;= 0 (基数: 1.0) +0 &lt; t &lt;= 2 (基数: 0.8) +2 &lt; t &lt;= 4 (基数: 0.6) +4 &lt; t &lt;= 6 (基数: 0.5) +t &gt; 6 (基数: 0)</t>
+    </r>
   </si>
   <si>
     <t>基数=(单个项目基数之和）/项目数
@@ -96,10 +149,9 @@
 2、bug解决方案为设计如此、重复bug、无法重现、产品经理角色定义无需处理的不算有效bug，或测试报告生成依旧挂产品经理头上的。
 3、只统计考察周期内已完成评审后生成测试报告的测试单。
 计算标准
-1、有效bug率大于等于95%，基数为1.2
-2、有效bug率大于等于90%，小于95%，基数为1
-3、有效bug率大于等于80%，小于90%，基数为0.8
-4、有效bug率大于等于70%，小于80%，基数为0.5
+1、有效bug率大于等于90%，基数为1
+2、有效bug率大于等于80%，小于90%，基数为0.8
+3、有效bug率大于等于70%，小于80%，基数为0.5
 4、有效bug率低于70%，基数为0</t>
   </si>
   <si>
@@ -134,12 +186,10 @@
 1、该项目作为测试人员对于用例编写能力的直观体现，能够反应用例覆盖场景是否足够全面。
 2、只统计考察周期内已完成评审后生成测试报告的测试单。
 计算标准
-1、用例发现bug率大于等于90%，基数为1.4
-2、用例发现bug率大于等于80%，小于90%，基数为1.2
-3、用例发现bug率大于等于70%，小于80%，基数为1
-4、用例发现bug率大于等于60%，小于70%，基数0.8
-5、用例发现bug率大于等于40%，小于60%，基数为0.5
-6、用例发现bug率小于40%，基数为0</t>
+3、用例发现bug率大于等于90%，基数为1
+4、用例发现bug率大于等于80%，小于90%，基数0.8
+5、用例发现bug率大于等于70%，小于80%，基数为0.6
+6、用例发现bug率小于70%，基数为0.5</t>
   </si>
   <si>
     <t>用例发现bug率=（用例创建的Bug / 发现Bug数）多个项目之和/测试单数
@@ -1878,7 +1928,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" ht="135" customHeight="1">
+    <row r="4" ht="172.5" customHeight="1">
       <c r="A4" s="18">
         <v>1</v>
       </c>

--- a/excel/绩效考核模板-测试.xlsx
+++ b/excel/绩效考核模板-测试.xlsx
@@ -126,14 +126,70 @@
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
       </rPr>
-      <t>t &lt;= -8 (基数: 1.8) --8 &lt; t &lt;= -6 (基数: 1.5) --6 &lt; t &lt;= -3 (基数: 1.2) --3 &lt; t &lt;= 0 (基数: 1.0) -0 &lt; t &lt;= 2 (基数: 0.8) -2 &lt; t &lt;= 4 (基数: 0.6) -4 &lt; t &lt;= 6 (基数: 0.5) -t &gt; 6 (基数: 0)</t>
+      <t xml:space="preserve">t &lt;= -8 (基数: 1.8)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">-8 &lt; t &lt;= -6 (基数: 1.5)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">-6 &lt; t &lt;= -3 (基数: 1.2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">-3 &lt; t &lt;= 0 (基数: 1.0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">0 &lt; t &lt;= 2 (基数: 0.8)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">2 &lt; t &lt;= 4 (基数: 0.6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">4 &lt; t &lt;= 6 (基数: 0.5)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>t &gt; 6 (基数: 0)</t>
     </r>
   </si>
   <si>
@@ -176,7 +232,7 @@
   </si>
   <si>
     <t>分值=（转需求bug数+挂产品/项目身上bug数+转研发任务bug数）*3
-该项分值上限20分。</t>
+该项分值上限30分。</t>
   </si>
   <si>
     <t>用例发现Bug率</t>
@@ -1983,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="s" s="28">
         <v>21</v>
@@ -2064,7 +2120,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="21">
         <f>SUM(D4:D7)</f>
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>

--- a/excel/绩效考核模板-测试.xlsx
+++ b/excel/绩效考核模板-测试.xlsx
@@ -72,7 +72,7 @@
     <t>业绩60%</t>
   </si>
   <si>
-    <t>项目进度达成率</t>
+    <t>项目进度延时率</t>
   </si>
   <si>
     <r>
@@ -117,84 +117,17 @@
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
       </rPr>
-      <t xml:space="preserve">t(天) = 软件测试项目关闭时间 - 软件测试项目关闭预期时间
-</t>
+      <t>计算标准 +延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) +延时率 &lt;= -50%                       基数 1.5 +-50% &lt; 延时率 &lt;= -20%.         基数 1.2 +-20% &lt; 延时率 &lt;= 0%.            基数 1 +0% &lt; 延时率 &lt;= 20%.             基数 0.5 +延时率 &gt; 20%                          基数 0</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">t &lt;= -8 (基数: 1.8)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">-8 &lt; t &lt;= -6 (基数: 1.5)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">-6 &lt; t &lt;= -3 (基数: 1.2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">-3 &lt; t &lt;= 0 (基数: 1.0)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">0 &lt; t &lt;= 2 (基数: 0.8)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">2 &lt; t &lt;= 4 (基数: 0.6)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t xml:space="preserve">4 &lt; t &lt;= 6 (基数: 0.5)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-      </rPr>
-      <t>t &gt; 6 (基数: 0)</t>
-    </r>
-  </si>
-  <si>
-    <t>基数=(单个项目基数之和）/项目数
-分值=基数*30</t>
+  </si>
+  <si>
+    <t>分值=基数*30</t>
   </si>
   <si>
     <t xml:space="preserve">项目有效bug率 </t>
@@ -215,7 +148,7 @@
 分值=基数*30</t>
   </si>
   <si>
-    <t>能力40%</t>
+    <t>能力50%</t>
   </si>
   <si>
     <t>bug转需求数</t>
